--- a/output.xlsx
+++ b/output.xlsx
@@ -2,22 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +24,78 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,14 +107,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -408,43 +484,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="25.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="61.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" min="3" max="3"/>
+    <col width="26.1640625" customWidth="1" min="4" max="4"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="15.5" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="16" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="9.6640625" bestFit="1" customWidth="1" min="8" max="9"/>
+    <col width="9.33203125" customWidth="1" min="10" max="10"/>
+    <col width="15" bestFit="1" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Application/Link</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Date Posted</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Application Status </t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Date of Application</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Portal Link </t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Application Status</t>
         </is>
       </c>
     </row>
@@ -459,12 +568,12 @@
           <t>Software Security Research Intern</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Bristol, UK</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/United-Kingdom---Bristol/Software-Security-Research-Intern&lt;/em</t>
         </is>
@@ -472,6 +581,19 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>Dec 01</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
+        </is>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>45311</v>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -491,7 +613,7 @@
           <t>Remote</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/flyxai/jobs/4042306007?utm&lt;em</t>
         </is>
@@ -499,6 +621,19 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Dec 01</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>45311</v>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -518,7 +653,7 @@
           <t>Remote</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/flyxai/jobs/4045994007?utm&lt;em</t>
         </is>
@@ -526,6 +661,19 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>Dec 01</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>45311</v>
+      </c>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>AO</t>
         </is>
       </c>
     </row>
@@ -545,7 +693,7 @@
           <t>Las Vegas, NV</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>https://jobs.lever.co/boringcompany/2e50dd54-0f2e-42a7-b08d-622ff62e22e8?utm&lt;/em</t>
         </is>
@@ -553,6 +701,19 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>Dec 03</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>45311</v>
+      </c>
+      <c r="K5" s="7" t="inlineStr">
+        <is>
+          <t>Interview</t>
         </is>
       </c>
     </row>
@@ -572,7 +733,7 @@
           <t>San Francisco, CA</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/chanzuckerbergbiohubinternship/jobs/4336495005?utm&lt;em</t>
         </is>
@@ -580,6 +741,19 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>Dec 03</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>45311</v>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>Closed</t>
         </is>
       </c>
     </row>
@@ -599,7 +773,7 @@
           <t>Columbia, MD</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>https://leidos.wd5.myworkdayjobs.com/External/job/Columbia-MD/Systems-Engineer-Intern&lt;/em</t>
         </is>
@@ -608,6 +782,14 @@
         <is>
           <t>Dec 04</t>
         </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="8">
@@ -626,7 +808,7 @@
           <t>Columbia, MD</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>https://leidos.wd5.myworkdayjobs.com/External/job/Columbia-MD/Software-Engineer-Intern&lt;em</t>
         </is>
@@ -635,6 +817,14 @@
         <is>
           <t>Dec 04</t>
         </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="9">
@@ -653,7 +843,7 @@
           <t>San Bruno, CA</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/cytokinetics/jobs/7050455002?utm&lt;/em</t>
         </is>
@@ -662,6 +852,14 @@
         <is>
           <t>Dec 04</t>
         </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +878,7 @@
           <t>San Bruno, CA</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>https://jobs.lever.co/SimbeRobotics/b202c6b5-0ce6-442f-82b2-9e801c92f371/apply?utm&lt;/em</t>
         </is>
@@ -689,6 +887,14 @@
         <is>
           <t>Dec 05</t>
         </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="11">
@@ -707,7 +913,7 @@
           <t>Remote</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>https://jobs.lever.co/nimblerx/d3749f50-25e7-4b55-8482-c842f64dbafc/apply?utm&lt;/em</t>
         </is>
@@ -716,6 +922,14 @@
         <is>
           <t>Dec 05</t>
         </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="12">
@@ -734,7 +948,7 @@
           <t>Framingham, MA</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>https://eh2.com/careers?gh&lt;/em</t>
         </is>
@@ -743,6 +957,14 @@
         <is>
           <t>Dec 05</t>
         </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="13">
@@ -761,7 +983,7 @@
           <t>Framingham, MA</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>https://eh2.com/careers?gh&lt;em</t>
         </is>
@@ -770,6 +992,14 @@
         <is>
           <t>Dec 05</t>
         </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="14">
@@ -788,7 +1018,7 @@
           <t>SF</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/thebrattlegroup/jobs/4325766005?utm&lt;em</t>
         </is>
@@ -797,6 +1027,14 @@
         <is>
           <t>Dec 06</t>
         </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
+        </is>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="15">
@@ -815,7 +1053,7 @@
           <t>Cambridge, MA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/thebrattlegroup/jobs/4325760005?utm&lt;em</t>
         </is>
@@ -824,6 +1062,14 @@
         <is>
           <t>Dec 06</t>
         </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
+        </is>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="16">
@@ -842,7 +1088,7 @@
           <t>San Francisco, CA</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>https://app.ripplematch.com/v2/public/job/222a77cb/details?utm&lt;em</t>
         </is>
@@ -851,6 +1097,14 @@
         <is>
           <t>Dec 06</t>
         </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="17">
@@ -869,7 +1123,7 @@
           <t>New York, NY</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>https://www.mwam.com/news/internships/new-york-technology-internship/?utm&lt;/em</t>
         </is>
@@ -878,6 +1132,14 @@
         <is>
           <t>Dec 06</t>
         </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="18">
@@ -888,7 +1150,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Systems Reliability Engineering Intern</t>
+          <t>Cyber Security Intern</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -896,7 +1158,7 @@
           <t>NYC</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>https://iex.io/careers/apply?gh&lt;em</t>
         </is>
@@ -905,6 +1167,14 @@
         <is>
           <t>Dec 06</t>
         </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="19">
@@ -923,7 +1193,7 @@
           <t>Northridge, LA</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
         </is>
@@ -932,6 +1202,14 @@
         <is>
           <t>Dec 06</t>
         </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="20">
@@ -950,7 +1228,7 @@
           <t>Urbana, IL</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>https://careers.rivian.com/jobs/14916?lang=en-us&amp;icims=1&amp;utm&lt;/em</t>
         </is>
@@ -959,6 +1237,14 @@
         <is>
           <t>Dec 07</t>
         </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>45311</v>
       </c>
     </row>
     <row r="21">
@@ -977,7 +1263,7 @@
           <t>San Jose, CA</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>https://eh2.com/careers?gh&lt;/em</t>
         </is>
@@ -985,6 +1271,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>Dec 07</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -999,12 +1290,12 @@
           <t>Software Intern</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>Edinburgh, UK</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
         </is>
@@ -1012,6 +1303,11 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>Dec 07</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1327,7 @@
           <t>Cambridge, MA</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/inariagriculture/jobs/7055292002?utm&lt;/em</t>
         </is>
@@ -1039,6 +1335,11 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>Dec 08</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1359,7 @@
           <t>Northridge, LA</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
         </is>
@@ -1066,6 +1367,11 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>Dec 08</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -1085,7 +1391,7 @@
           <t>San Jose</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>https://careers.tiktok.com/position/7308839879797770522/detail?utm&lt;em</t>
         </is>
@@ -1093,6 +1399,11 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>Dec 10</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1423,7 @@
           <t>Boca Raton, FL</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>https://www.modmed.com/company/careers/?gh&lt;/em</t>
         </is>
@@ -1139,7 +1450,7 @@
           <t>Boca Raton, FL</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>https://www.modmed.com/company/careers/?gh&lt;em</t>
         </is>
@@ -1166,7 +1477,7 @@
           <t>Boca Raton, FL</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>https://www.modmed.com/company/careers/?gh&lt;/em</t>
         </is>
@@ -1193,7 +1504,7 @@
           <t>Boca Raton, FL</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>https://www.modmed.com/company/careers/?gh&lt;em</t>
         </is>
@@ -1220,7 +1531,7 @@
           <t>Boca Raton, FL</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>https://www.modmed.com/company/careers/?gh&lt;/em</t>
         </is>
@@ -1229,6 +1540,14 @@
         <is>
           <t>Dec 11</t>
         </is>
+      </c>
+      <c r="F30" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>45312</v>
       </c>
     </row>
     <row r="31">
@@ -1247,7 +1566,7 @@
           <t>Boca Raton, FL</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>https://www.modmed.com/company/careers/?gh&lt;em</t>
         </is>
@@ -1274,7 +1593,7 @@
           <t>Boca Raton, FL</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>https://www.modmed.com/company/careers/?gh&lt;/em</t>
         </is>
@@ -1301,7 +1620,7 @@
           <t>Boca Raton, FL</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>https://www.modmed.com/company/careers/?gh&lt;em</t>
         </is>
@@ -1328,7 +1647,7 @@
           <t>Columbia, MD</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>https://leidos.wd5.myworkdayjobs.com/External/job/Columbia-MD/Cyber-Analyst-Intern&lt;/em</t>
         </is>
@@ -1365,6 +1684,11 @@
           <t>Dec 12</t>
         </is>
       </c>
+      <c r="F35" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1382,7 +1706,7 @@
           <t>Mountain View, CA</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>https://jobs.lever.co/kumo/d01cc073-5ec4-46a6-9af9-fbc4c4d2b53f/apply?utm&lt;/em</t>
         </is>
@@ -1390,6 +1714,11 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>Dec 13</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -1409,7 +1738,7 @@
           <t>Corvallis, OR</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Corvallis-Oregon-United-States-of-America/D-TO-Software-AI-Intern-Summer-2024&lt;/em</t>
         </is>
@@ -1417,6 +1746,11 @@
       <c r="E37" t="inlineStr">
         <is>
           <t>Dec 13</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -1446,6 +1780,11 @@
           <t>Dec 13</t>
         </is>
       </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1458,7 +1797,7 @@
           <t>Machine Learning Engineer Co-Op</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>Montreal, QC, Canada</t>
         </is>
@@ -1471,6 +1810,11 @@
       <c r="E39" t="inlineStr">
         <is>
           <t>Dec 14</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1834,7 @@
           <t>Los Gatos, CA</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>https://jobs.lever.co/netflix/9b6379bc-cac9-462c-a03e-4b1ce26030cd/apply?utm&lt;/em</t>
         </is>
@@ -1498,6 +1842,16 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>Dec 14</t>
+        </is>
+      </c>
+      <c r="F40" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>with CV</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1871,7 @@
           <t>LA</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>https://jobs.lever.co/MachinaLabs/29cc11ac-27a7-4a3a-a392-6c945ab64cbb/apply?utm&lt;/em</t>
         </is>
@@ -1525,6 +1879,16 @@
       <c r="E41" t="inlineStr">
         <is>
           <t>Dec 14</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>with CV</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1908,7 @@
           <t>Remote in USAUnited States</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>https://apply.workable.com/huggingface/j/2295F28772/apply?utm&lt;/em</t>
         </is>
@@ -1552,6 +1916,16 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>Dec 14</t>
+        </is>
+      </c>
+      <c r="F42" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>with CV</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1945,7 @@
           <t>Remote</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>https://apply.workable.com/huggingface/j/90CA057D65/apply?utm&lt;/em</t>
         </is>
@@ -1579,6 +1953,16 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>Dec 14</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>with CV</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1982,7 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>https://www.hashicorp.com/career/5473657?gh&lt;/em</t>
         </is>
@@ -1606,6 +1990,11 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>Dec 14</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -1625,7 +2014,7 @@
           <t>Seattle, WA</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>https://www.coinbase.com/careers/positions/5462592?gh&lt;em</t>
         </is>
@@ -1633,6 +2022,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>Dec 14</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>Closed</t>
         </is>
       </c>
     </row>
@@ -1652,7 +2046,7 @@
           <t>Toronto, ON, Canada</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/asteralabs/jobs/4193500005?utm&lt;/em</t>
         </is>
@@ -1660,6 +2054,11 @@
       <c r="E46" t="inlineStr">
         <is>
           <t>Dec 14</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -1676,10 +2075,10 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
+          <t>Remote, France</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>https://apply.workable.com/huggingface/j/518E0AB7C0/apply?utm&lt;/em</t>
         </is>
@@ -1687,6 +2086,11 @@
       <c r="E47" t="inlineStr">
         <is>
           <t>Dec 15</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -1703,10 +2107,10 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+          <t>Remote, France</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>https://apply.workable.com/huggingface/j/36F5AB0214/apply?utm&lt;/em</t>
         </is>
@@ -1714,6 +2118,11 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>Dec 15</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -1733,7 +2142,7 @@
           <t>Remote in USAUnited States</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>https://apply.workable.com/huggingface/j/B4190F3BE4/apply?utm&lt;/em</t>
         </is>
@@ -1741,6 +2150,16 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>Dec 15</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>with CV</t>
         </is>
       </c>
     </row>
@@ -1760,7 +2179,7 @@
           <t>Palo Alto, CA</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/applovin/jobs/4303671006?utm&lt;/em</t>
         </is>
@@ -1768,6 +2187,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>Dec 15</t>
+        </is>
+      </c>
+      <c r="F50" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -1787,7 +2211,7 @@
           <t>Newport Beach, CA</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/andurilindustries/jobs/4163556007?utm&lt;/em</t>
         </is>
@@ -1795,6 +2219,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>Dec 15</t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -1814,7 +2243,7 @@
           <t>Remote</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr">
         <is>
           <t>https://apply.workable.com/huggingface/j/9F9D9316F0/apply?utm&lt;/em</t>
         </is>
@@ -1822,6 +2251,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>Dec 16</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>Closed</t>
         </is>
       </c>
     </row>
@@ -1841,7 +2275,7 @@
           <t>Remote in USAUnited States</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" s="2" t="inlineStr">
         <is>
           <t>https://apply.workable.com/huggingface/j/DB77EC837E/apply?utm&lt;/em</t>
         </is>
@@ -1849,6 +2283,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>Dec 17</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>Closed</t>
         </is>
       </c>
     </row>
@@ -1878,6 +2317,11 @@
           <t>Dec 18</t>
         </is>
       </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1905,6 +2349,11 @@
           <t>Dec 18</t>
         </is>
       </c>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1922,7 +2371,7 @@
           <t>NYC</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/talos/jobs/5039742004?utm&lt;em</t>
         </is>
@@ -1930,6 +2379,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>Dec 18</t>
+        </is>
+      </c>
+      <c r="F56" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -1949,7 +2403,7 @@
           <t>Chicago, IL</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/stratacareers/jobs/5836698003?utm&lt;em</t>
         </is>
@@ -1957,6 +2411,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Dec 18</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -1976,7 +2435,7 @@
           <t>Chicago, IL</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/stratacareers/jobs/5836698003?gh&lt;em</t>
         </is>
@@ -1984,6 +2443,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Dec 18</t>
+        </is>
+      </c>
+      <c r="F58" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -2003,7 +2467,7 @@
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/Germany-Munich/Machine-Learning-Frameworks-Intern---f-m-d--&lt;em</t>
         </is>
@@ -2011,6 +2475,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Dec 18</t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
@@ -2030,14 +2499,24 @@
           <t>Hillsboro, OR</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Oregon-Hillsboro/Software-Validation-Engineer-Intern&lt;/em</t>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Oregon-Hillsboro/Software-Validation-Engineer-Intern_JR0253626?utm_source=Simplify&amp;ref=Simplify</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>Dec 18</t>
+        </is>
+      </c>
+      <c r="F60" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://intel.wd1.myworkdayjobs.com/en-US/external/userHome</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2536,7 @@
           <t>Remote</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>https://apply.workable.com/huggingface/j/E55C1BEA66/apply?utm&lt;em</t>
         </is>
@@ -2065,6 +2544,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Dec 18</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>Closed</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2568,7 @@
           <t>Mountain View, CA</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="2" t="inlineStr">
         <is>
           <t>https://gen.wd1.myworkdayjobs.com/careers/job/USA---California-Mountain-View/Software-Engineer-Intern&lt;em</t>
         </is>
@@ -2092,6 +2576,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>Dec 18</t>
+        </is>
+      </c>
+      <c r="F62" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -2111,7 +2600,7 @@
           <t>Mountain View, CA</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr">
         <is>
           <t>https://gen.wd1.myworkdayjobs.com/careers/job/USA---California-Mountain-View/Software-Engineer-Intern&lt;/em</t>
         </is>
@@ -2119,6 +2608,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Dec 18</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -2138,7 +2632,7 @@
           <t>Mountain View, CA</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="2" t="inlineStr">
         <is>
           <t>https://gen.wd1.myworkdayjobs.com/careers/job/USA---California-Mountain-View/Software-Engineer-Intern&lt;em</t>
         </is>
@@ -2146,6 +2640,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>Dec 18</t>
+        </is>
+      </c>
+      <c r="F64" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -2165,7 +2664,7 @@
           <t>Northridge, LA</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" s="2" t="inlineStr">
         <is>
           <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
         </is>
@@ -2173,6 +2672,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Dec 18</t>
+        </is>
+      </c>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -2192,7 +2696,7 @@
           <t>Newport Beach, CA</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/andurilindustries/jobs/4163553007?utm&lt;/em</t>
         </is>
@@ -2201,6 +2705,14 @@
         <is>
           <t>Dec 18</t>
         </is>
+      </c>
+      <c r="F66" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
+        </is>
+      </c>
+      <c r="G66" s="9" t="n">
+        <v>45312</v>
       </c>
     </row>
     <row r="67">
@@ -2219,7 +2731,7 @@
           <t>Vienna, VA</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr">
         <is>
           <t>https://boards.greenhouse.io/ntconcepts/jobs/5042342004?utm&lt;em</t>
         </is>
@@ -2228,6 +2740,14 @@
         <is>
           <t>Dec 19</t>
         </is>
+      </c>
+      <c r="F67" s="10" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
+        </is>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>45315</v>
       </c>
     </row>
     <row r="68">
@@ -2246,7 +2766,7 @@
           <t>Los Gatos, CA</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>https://jobs.lever.co/netflix/d91052e3-cedd-42e2-a48d-ae950aebbd1d/apply?utm&lt;em</t>
         </is>
@@ -2254,6 +2774,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>Dec 19</t>
+        </is>
+      </c>
+      <c r="F68" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -2273,7 +2798,7 @@
           <t>Pittsburgh, PA</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" s="2" t="inlineStr">
         <is>
           <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
         </is>
@@ -2281,6 +2806,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Dec 19</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
@@ -2300,7 +2830,7 @@
           <t>San Jose, CA</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
         </is>
@@ -2308,244 +2838,289 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>Dec 19</t>
+        </is>
+      </c>
+      <c r="F70" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Zynga</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Scientific Computing Intern</t>
+          <t>Engineering Intern - Month 2024</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/zynga/jobs/4989906004?utm&lt;/em</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Dec 19</t>
+          <t>Dec 20</t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Zynga</t>
+          <t>Dev Technology Group</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Engineering Intern - Month 2024</t>
+          <t>Summer Low-Code/No Code – Developer Intern - Servicenow</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/zynga/jobs/4989906004?utm&lt;/em</t>
+          <t>Reston, VA</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/devtechnology/jobs/7070697002?utm&lt;/em</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>Dec 20</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>Closed</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Dev Technology Group</t>
+          <t>Autodesk</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Summer Low-Code/No Code – Developer Intern - Servicenow</t>
+          <t>Intern – Software Engineer - Hci &amp; AI</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Reston, VA</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/devtechnology/jobs/7070697002?utm&lt;/em</t>
+          <t>Toronto, ON, Canada</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>https://autodesk.wd1.myworkdayjobs.com/Ext/job/Toronto-ON-CAN/Intern--Software-Engineer--HCI---AI&lt;/em</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>Dec 20</t>
+        </is>
+      </c>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Autodesk</t>
+          <t>Hugging Face</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Intern – Software Engineer - Hci &amp; AI</t>
+          <t>Machine Learning Engineer Internship - Biomedical - Remote</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://autodesk.wd1.myworkdayjobs.com/Ext/job/Toronto-ON-CAN/Intern--Software-Engineer--HCI---AI&lt;/em</t>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>https://apply.workable.com/huggingface/j/45BD7A856D/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Dec 20</t>
+          <t>Dec 21</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Hugging Face</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Internship - Biomedical - Remote</t>
+          <t>Machine Learning Engineer Internship - Biomedical - US Remote</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://apply.workable.com/huggingface/j/45BD7A856D/apply?utm&lt;/em</t>
+          <t>Remote in USAUnited States</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>https://apply.workable.com/huggingface/j/AB7B65D426/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>Dec 21</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Cadence Design Systems</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Internship - Biomedical - US Remote</t>
+          <t>Software Engineering Intern</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Remote in USAUnited States</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://apply.workable.com/huggingface/j/AB7B65D426/apply?utm&lt;/em</t>
+          <t>San Jose, CA</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>Dec 21</t>
+        </is>
+      </c>
+      <c r="F76" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cadence Design Systems</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Intern – Software Quality Engineering - Soc C&amp;MM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
+          <t>San Diego, CA</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/samsungsemiconductor/jobs/5802264003?utm&lt;/em</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Dec 21</t>
+          <t>Dec 22</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Ramp</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Intern – Software Quality Engineering - Soc C&amp;MM</t>
+          <t>Software Engineer Internship - IOS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/samsungsemiconductor/jobs/5802264003?utm&lt;/em</t>
+          <t>NYC</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>https://jobs.ashbyhq.com/ramp/0f1c331d-21b6-44fb-a326-5357d6e30188/application?utm&lt;/em</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>Dec 22</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ramp</t>
+          <t>Moveworks</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Software Engineer Internship - IOS</t>
+          <t>Machine Learning Engineer Intern - NLU &amp; ML Infra</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NYC</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://jobs.ashbyhq.com/ramp/0f1c331d-21b6-44fb-a326-5357d6e30188/application?utm&lt;/em</t>
+          <t>Mountain View, CA</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moveworks.com/position?gh&lt;/em</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2557,12 +3132,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Moveworks</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Intern - NLU &amp; ML Infra</t>
+          <t>Machine Learning Engineer Intern - Conversational Search</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2570,9 +3145,9 @@
           <t>Mountain View, CA</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://www.moveworks.com/position?gh&lt;/em</t>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moveworks.com/position?gh&lt;em</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2584,103 +3159,118 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Keywords Studios</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Intern - Conversational Search</t>
+          <t>Programming Intern 2024 - 2025 Coconut Lizard</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://www.moveworks.com/position?gh&lt;em</t>
+          <t>Newcastle upon Tyne, UK</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>https://apply.workable.com/keywords-intl1/j/C96D5D8A9A/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>Dec 22</t>
+        </is>
+      </c>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Keywords Studios</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Programming Intern 2024 - 2025 Coconut Lizard</t>
+          <t>Programming Intern 2024 - 2025 d3t</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Newcastle upon Tyne, UK</t>
+          <t>Warrington, UK</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/keywords-intl1/j/C96D5D8A9A/apply?utm&lt;/em</t>
+          <t>https://apply.workable.com/keywords-intl1/j/8B7A38F0DF/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>Dec 22</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Interactive Brokers</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Programming Intern 2024 - 2025 d3t</t>
+          <t>Software Developer Summer Internship - 2024</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Warrington, UK</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://apply.workable.com/keywords-intl1/j/8B7A38F0DF/apply?utm&lt;/em</t>
+          <t>Greenwich, CT</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/ibkr/jobs/7070074002?utm&lt;em</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Dec 22</t>
+          <t>Dec 26</t>
+        </is>
+      </c>
+      <c r="F83" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Interactive Brokers</t>
+          <t>Dropbox</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Software Developer Summer Internship - 2024</t>
+          <t>Software Engineering Intern - Customer Experience Technology - Summer 2024</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Greenwich, CT</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/ibkr/jobs/7070074002?utm&lt;em</t>
+          <t>17 locationsOregonWashington, DCLATexasIrvine, CAFloridaGeorgiaArizonaTennesseeVirginiaColoradoMarylandMassachusettsNorth CarolinaSan Diego, CAOhioIllinois</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/embed/job&lt;em</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2692,174 +3282,189 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Dropbox</t>
+          <t>Anduril</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Software Engineering Intern - Customer Experience Technology - Summer 2024</t>
+          <t>Software Engineer Intern 🇺🇸</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>17 locationsOregonWashington, DCLATexasIrvine, CAFloridaGeorgiaArizonaTennesseeVirginiaColoradoMarylandMassachusettsNorth CarolinaSan Diego, CAOhioIllinois</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/embed/job&lt;em</t>
+          <t>Newport Beach, CA</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/andurilindustries/jobs/4159665007?utm&lt;/em</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>Dec 26</t>
+        </is>
+      </c>
+      <c r="F85" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Anduril</t>
+          <t>Schonfeld</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Software Engineer Intern 🇺🇸</t>
+          <t>2024 Infrastructure Engineering Summer Internship</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Newport Beach, CA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/andurilindustries/jobs/4159665007?utm&lt;/em</t>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/schonfeld/jobs/5571559?utm&lt;em</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Dec 26</t>
+          <t>Dec 28</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Schonfeld</t>
+          <t>Mercedes-Benz</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024 Infrastructure Engineering Summer Internship</t>
+          <t>Embedded Software Engineer – Intern</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>London, UK</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/schonfeld/jobs/5571559?utm&lt;em</t>
+          <t>Sunnyvale, CA</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/MBRDNA/e80fa762-49ee-42f8-afa2-a1c103532b81/apply?utm&lt;em</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Dec 28</t>
+          <t>Dec 29</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>Point72</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Embedded Software Engineer – Intern</t>
+          <t>2024 Data Engineer Internship - Long/Short Equities</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sunnyvale, CA</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/MBRDNA/e80fa762-49ee-42f8-afa2-a1c103532b81/apply?utm&lt;em</t>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/point72/jobs/7061105002?utm&lt;em</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Dec 29</t>
+          <t>Dec 30</t>
+        </is>
+      </c>
+      <c r="F88" s="10" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Point72</t>
+          <t>Bose</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024 Data Engineer Internship - Long/Short Equities</t>
+          <t>Cloud Software Engineer Intern</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>London, UK</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/point72/jobs/7061105002?utm&lt;em</t>
+          <t>Framingham, MA</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>https://boseallaboutme.wd1.myworkdayjobs.com/en-US/Bose&lt;em</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Dec 30</t>
+          <t>Jan 01</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bose</t>
+          <t>Wealthsimple</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cloud Software Engineer Intern</t>
+          <t>Intern – Software Development - Summer 2024</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Framingham, MA</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://boseallaboutme.wd1.myworkdayjobs.com/en-US/Bose&lt;em</t>
+          <t>Toronto, ON, Canada</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/wealthsimple/c3396808-5b7a-431a-837c-e5bc92c2ed31/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Jan 01</t>
+          <t>Jan 02</t>
+        </is>
+      </c>
+      <c r="F90" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wealthsimple</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Intern – Software Development - Summer 2024</t>
+          <t>Intern – Data Science - Summer 2024</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2867,63 +3472,73 @@
           <t>Toronto, ON, Canada</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/wealthsimple/c3396808-5b7a-431a-837c-e5bc92c2ed31/apply?utm&lt;/em</t>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/wealthsimple/3a59dc79-c9f5-4987-8cf6-3e0d61d41929/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>Jan 02</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Applied </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Ripple</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Intern – Data Science - Summer 2024</t>
+          <t>Quantitative Trading Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>London, UK</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/wealthsimple/3a59dc79-c9f5-4987-8cf6-3e0d61d41929/apply?utm&lt;/em</t>
+          <t>https://ripple.com/careers/all-jobs/job/5592859?gh&lt;/em</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>Jan 02</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>Did not Apply</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ripple</t>
+          <t>Matroid</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Quantitative Trading Intern - Summer 2024</t>
+          <t>Software Engineer Intern - Infrastructure - Summer 2024</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>London, UK</t>
+          <t>Palo Alto, CA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://ripple.com/careers/all-jobs/job/5592859?gh&lt;/em</t>
+          <t>https://matroid.breezy.hr/p/bf4668116295/apply?utm&lt;em</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2935,22 +3550,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Matroid</t>
+          <t>Global Atlantic Financial Group</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Software Engineer Intern - Infrastructure - Summer 2024</t>
+          <t>2025 Quantitative Investments Intern</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>NYC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://matroid.breezy.hr/p/bf4668116295/apply?utm&lt;em</t>
+          <t>https://boards.greenhouse.io/gainternships/jobs/5593433?utm&lt;em</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2962,22 +3577,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Global Atlantic Financial Group</t>
+          <t>Cadence Design Systems</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025 Quantitative Investments Intern</t>
+          <t>Software Intern</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>NYC</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/gainternships/jobs/5593433?utm&lt;em</t>
+          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2989,400 +3604,400 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DRW</t>
+          <t>Raptor Maps</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Software Developer Intern</t>
+          <t>Summer 2024 Software Engineering Internship - Remote</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Montreal, QC, Canada</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/drweng/jobs/5580297?utm&lt;em</t>
+          <t>https://jobs.lever.co/RaptorMaps/015d4188-4a39-4e8e-ac5d-6e8b69a8efef/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jan 02</t>
+          <t>Jan 03</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Anduril</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Discretionary Junior Trading Intern</t>
+          <t>Robotics Software Engineering Intern</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Montreal, QC, Canada</t>
+          <t>Newport Beach, CA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/drweng/jobs/5585579?utm&lt;em</t>
+          <t>https://boards.greenhouse.io/andurilindustries/jobs/4159377007?utm&lt;/em</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jan 02</t>
+          <t>Jan 03</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cadence Design Systems</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Software Intern</t>
+          <t>Jr. Software Development Engineer Intern</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>New York, NY</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
+          <t>https://www.amazon.jobs/en/jobs/2495700/jr-software-development-engineer?cmpid=JB&lt;/em</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Jan 02</t>
+          <t>Jan 03</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ShyftLabs</t>
+          <t>The Boring Company</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Software Developer – Internship</t>
+          <t>Software Engineering Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Bastrop, TX</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/shyftlabs/b39a054c-e4d2-405e-bf47-a25f80b294eb/apply?utm&lt;/em</t>
+          <t>https://jobs.lever.co/boringcompany/8a8147f3-855d-4bd6-8221-a65a4291fea3/apply?utm&lt;em</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Jan 03</t>
+          <t>Jan 04</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Raptor Maps</t>
+          <t>MIT Lincoln Laboratory</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Summer 2024 Software Engineering Internship - Remote</t>
+          <t>Summer Intern (Artificial Intelligence Technology)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Lexington, MA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/RaptorMaps/015d4188-4a39-4e8e-ac5d-6e8b69a8efef/apply?utm&lt;/em</t>
+          <t>https://careers.ll.mit.edu/job/Lexington-Group-01-Summer-Research-Program-Intern-%28Artificial-Intelligence-Technology%29-MA-02420/1109281200/?utm&lt;em</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Jan 03</t>
+          <t>Jan 04</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dataiku</t>
+          <t>MasterControl</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Software Engineer intern - Develop an AI chatbot to help Dataiku users</t>
+          <t>Data Analyst Intern</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>London, UK</t>
+          <t>Salt Lake City, UT</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/dataiku/jobs/5043269004?utm&lt;/em</t>
+          <t>https://www.mastercontrol.com/careers/job-listings/role/?role=4354178005&amp;gh&lt;/em</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Jan 03</t>
+          <t>Jan 04</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Anduril</t>
+          <t>Formlabs</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Robotics Software Engineering Intern</t>
+          <t>Algorithms Software Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Newport Beach, CA</t>
+          <t>Cambridge, MA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/andurilindustries/jobs/4159377007?utm&lt;/em</t>
+          <t>https://careers.formlabs.com/job/5494878/apply/?gh&lt;em</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Jan 03</t>
+          <t>Jan 04</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Marco Technologies</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Jr. Software Development Engineer Intern</t>
+          <t>Data Analyst Intern</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>St Cloud, MN</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.amazon.jobs/en/jobs/2495700/jr-software-development-engineer?cmpid=JB&lt;/em</t>
+          <t>https://jobs.lever.co/marco/4487535c-6480-4ad4-afd2-b837fe953130/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Jan 03</t>
+          <t>Jan 05</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>The Boring Company</t>
+          <t>Elevance Health</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Software Engineering Intern - Summer 2024</t>
+          <t>Data Analyst Internship - Undergraduate - Summer 2024</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Bastrop, TX</t>
+          <t>Chicago, ILAtlanta, GA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/boringcompany/8a8147f3-855d-4bd6-8221-a65a4291fea3/apply?utm&lt;em</t>
+          <t>https://elevancehealth.wd1.myworkdayjobs.com/en-US/ANT/job/IL-CHICAGO-233-S-WACKER-DR-STE-3700/Data-Analyst-Internship---Undergraduate--Summer-2024&lt;/em</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Jan 04</t>
+          <t>Jan 05</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MIT Lincoln Laboratory</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Summer Intern (Artificial Intelligence Technology)</t>
+          <t>Software Engineer – Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Lexington, MA</t>
+          <t>San Mateo, CA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://careers.ll.mit.edu/job/Lexington-Group-01-Summer-Research-Program-Intern-%28Artificial-Intelligence-Technology%29-MA-02420/1109281200/?utm&lt;em</t>
+          <t>https://jobs.smartrecruiters.com/Visa/743999957663839?utm&lt;em</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Jan 04</t>
+          <t>Jan 08</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MasterControl</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Data Analyst Intern</t>
+          <t>Software Engineer – Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT</t>
+          <t>Ashburn, VA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.mastercontrol.com/careers/job-listings/role/?role=4354178005&amp;gh&lt;/em</t>
+          <t>https://jobs.smartrecruiters.com/Visa/743999957665493?utm&lt;em</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Jan 04</t>
+          <t>Jan 08</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Formlabs</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Algorithms Software Intern - Summer 2024</t>
+          <t>Software Engineer – Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cambridge, MA</t>
+          <t>Atlanta, GA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://careers.formlabs.com/job/5494878/apply/?gh&lt;em</t>
+          <t>https://jobs.smartrecruiters.com/Visa/743999957650613?utm&lt;em</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Jan 04</t>
+          <t>Jan 08</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Marco Technologies</t>
+          <t>Splunk</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Data Analyst Intern</t>
+          <t>Software Engineer in Test Intern</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>St Cloud, MN</t>
+          <t>Boulder, CO</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/marco/4487535c-6480-4ad4-afd2-b837fe953130/apply?utm&lt;/em</t>
+          <t>https://jobs.jobvite.com/splunk-careers/job/ooEMqfwY?nl=1&amp;nl=1&amp;fr=false&amp;utm&lt;em</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Jan 05</t>
+          <t>Jan 08</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Elevance Health</t>
+          <t>Rockwell Automation</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Data Analyst Internship - Undergraduate - Summer 2024</t>
+          <t>Intern – Cyber Security</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Chicago, ILAtlanta, GA</t>
+          <t>Milwaukee, WILowell, MA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://elevancehealth.wd1.myworkdayjobs.com/en-US/ANT/job/IL-CHICAGO-233-S-WACKER-DR-STE-3700/Data-Analyst-Internship---Undergraduate--Summer-2024&lt;/em</t>
+          <t>https://rockwellautomation.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Jan 05</t>
+          <t>Jan 08</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Software Engineer – Intern - Summer 2024</t>
+          <t>Product Development Engineer Intern</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>San Mateo, CA</t>
+          <t>Phoenix, AZ</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://jobs.smartrecruiters.com/Visa/743999957663839?utm&lt;em</t>
+          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Arizona-Phoenix/Product-Development-Engineer-Intern&lt;/em</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3394,22 +4009,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Fastly</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Software Engineer – Intern - Summer 2024</t>
+          <t>Software Engineer – Summer Undergraduate Intern</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ashburn, VA</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://jobs.smartrecruiters.com/Visa/743999957665493?utm&lt;em</t>
+          <t>https://www.fastly.com/about/jobs/apply/?gh&lt;em</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3421,81 +4036,81 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Workiva</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Software Engineer – Intern - Summer 2024</t>
+          <t>2024 Summer – Software Engineering Intern</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Atlanta, GA</t>
+          <t>4 locationsRemote in USAScottsdale, AZDenver, COBozeman, MT</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://jobs.smartrecruiters.com/Visa/743999957650613?utm&lt;em</t>
+          <t>https://workiva.wd1.myworkdayjobs.com/careers/job/Remote---IA/XMLNAME-2024-Summer---Software-Engineering-Intern&lt;em</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Jan 08</t>
+          <t>Jan 09</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Splunk</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Software Engineer in Test Intern</t>
+          <t>2024 Summer – Data Science Intern</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Boulder, CO</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://jobs.jobvite.com/splunk-careers/job/ooEMqfwY?nl=1&amp;nl=1&amp;fr=false&amp;utm&lt;em</t>
+          <t>https://workiva.wd1.myworkdayjobs.com/careers/job/USA---Remote/XMLNAME-2024-Summer---Data-Science-Intern&lt;/em</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Jan 08</t>
+          <t>Jan 09</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Rockwell Automation</t>
+          <t>Wade Trim</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Intern – Cyber Security</t>
+          <t>Devops Intern</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Milwaukee, WILowell, MA</t>
+          <t>Detroit, MI</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://rockwellautomation.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
+          <t>https://jobs.lever.co/wadetrim/0825e953-3aca-484f-b29b-38a45f33cc6a/apply?utm&lt;em</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Jan 08</t>
+          <t>Jan 09</t>
         </is>
       </c>
     </row>
@@ -3507,233 +4122,233 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Product Development Engineer Intern</t>
+          <t>Undergraduate Internship - Data Science - Bachelors</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Phoenix, AZ</t>
+          <t>7 locationsAustin, TXAlbuquerque, NMSanta Clara, CAHillsboro, ORFolsom, CAPhoenix, AZAtlanta, GA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Arizona-Phoenix/Product-Development-Engineer-Intern&lt;/em</t>
+          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Arizona-Phoenix/Undergraduate-Internship---Data-Science---Bachelors-&lt;em</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Jan 08</t>
+          <t>Jan 09</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fastly</t>
+          <t>Exiger</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Software Engineer – Summer Undergraduate Intern</t>
+          <t>Data Analyst Internship</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>Richmond, VA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.fastly.com/about/jobs/apply/?gh&lt;em</t>
+          <t>https://www.exiger.com/careers/5044845004?gh&lt;/em</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Jan 08</t>
+          <t>Jan 09</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DataCamp</t>
+          <t>Workiva</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Intern – Javascript</t>
+          <t>2024 Summer – Software Engineer Intern - Ames - IA location</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>London, UK</t>
+          <t>Ames, IA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/datacamp/jobs/5604769?utm&lt;/em</t>
+          <t>https://workiva.wd1.myworkdayjobs.com/careers/job/Ames/XMLNAME-2024-Summer---Software-Engineer-Intern--Ames--IA-location-&lt;em</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Jan 08</t>
+          <t>Jan 10</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Workiva</t>
+          <t>Wealthsimple</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024 Summer – Software Engineering Intern</t>
+          <t>Intern – Security - Summer 2024</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4 locationsRemote in USAScottsdale, AZDenver, COBozeman, MT</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://workiva.wd1.myworkdayjobs.com/careers/job/Remote---IA/XMLNAME-2024-Summer---Software-Engineering-Intern&lt;em</t>
+          <t>https://jobs.lever.co/wealthsimple/a329d5ad-a15b-4852-a73f-7906b1c4c6b4/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Jan 09</t>
+          <t>Jan 10</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Rockwell Automation</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024 Summer – Data Science Intern</t>
+          <t>Co-op – Software Engineering</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Remote in USA</t>
+          <t>Milwaukee, WI</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://workiva.wd1.myworkdayjobs.com/careers/job/USA---Remote/XMLNAME-2024-Summer---Data-Science-Intern&lt;/em</t>
+          <t>https://rockwellautomation.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Jan 09</t>
+          <t>Jan 10</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Wade Trim</t>
+          <t>Perchwell</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Devops Intern</t>
+          <t>Perchwell 2024 Software Engineer Internship</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Detroit, MI</t>
+          <t>NYC</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/wadetrim/0825e953-3aca-484f-b29b-38a45f33cc6a/apply?utm&lt;em</t>
+          <t>https://jobs.ashbyhq.com/Perchwell/6aa0778e-8d3e-457d-8ee3-3b931f8c57be/application?utm&lt;em</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Jan 09</t>
+          <t>Jan 10</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Undergraduate Internship - Data Science - Bachelors</t>
+          <t>Power Architect Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>7 locationsAustin, TXAlbuquerque, NMSanta Clara, CAHillsboro, ORFolsom, CAPhoenix, AZAtlanta, GA</t>
+          <t>Santa Clara, CA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Arizona-Phoenix/Undergraduate-Internship---Data-Science---Bachelors-&lt;em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/Power-Architect-Intern---Summer-2024&lt;em</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jan 09</t>
+          <t>Jan 10</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Exiger</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Data Analyst Internship</t>
+          <t>Software Validation Internship</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Richmond, VA</t>
+          <t>Hillsboro, OR</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.exiger.com/careers/5044845004?gh&lt;/em</t>
+          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Oregon-Hillsboro/Software-Validation-Internship&lt;/em</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jan 09</t>
+          <t>Jan 10</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Workiva</t>
+          <t>Hewlett Packard (HP)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024 Summer – Software Engineer Intern - Ames - IA location</t>
+          <t>Software Engineering Intern</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ames, IA</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://workiva.wd1.myworkdayjobs.com/careers/job/Ames/XMLNAME-2024-Summer---Software-Engineer-Intern--Ames--IA-location-&lt;em</t>
+          <t>Spring, TX</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Spring-Texas-United-States-of-America/Software-Engineering-Intern&lt;em</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3745,22 +4360,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Wealthsimple</t>
+          <t>GPTZero</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Intern – Security - Summer 2024</t>
+          <t>Software Engineering Intern 🛂</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>NYC, NYToronto, CA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/wealthsimple/a329d5ad-a15b-4852-a73f-7906b1c4c6b4/apply?utm&lt;/em</t>
+          <t>https://jobs.ashbyhq.com/GPTZero/e1f12af2-d017-4fca-a9af-99431d989d53?utm&lt;/em</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3772,22 +4387,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Rockwell Automation</t>
+          <t>Gilead Sciences</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Co-op – Software Engineering</t>
+          <t>Intern – Clinical Pharmacology Sciences</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Milwaukee, WI</t>
+          <t>San Mateo, CA</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://rockwellautomation.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
+          <t>https://gilead.wd1.myworkdayjobs.com/gileadcareers/job/United-States---California---Foster-City/Intern---Clinical-Pharmacology-Sciences&lt;em</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3799,22 +4414,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Perchwell</t>
+          <t>EarnIn</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Perchwell 2024 Software Engineer Internship</t>
+          <t>Infosec Intern - Year-Round</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NYC</t>
+          <t>Palo Alto, CA</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/Perchwell/6aa0778e-8d3e-457d-8ee3-3b931f8c57be/application?utm&lt;em</t>
+          <t>https://boards.greenhouse.io/earnin/jobs/5497902?utm&lt;/em</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3826,22 +4441,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NVIDIA</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Power Architect Intern - Summer 2024</t>
+          <t>Platform Engineering Intern - Year Round</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Santa Clara, CA</t>
+          <t>Palo Alto, CA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/Power-Architect-Intern---Summer-2024&lt;em</t>
+          <t>https://boards.greenhouse.io/earnin/jobs/5539340?utm&lt;/em</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3853,22 +4468,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Bose</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Software Validation Internship</t>
+          <t>Data Science Co-Op</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Hillsboro, OR</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Oregon-Hillsboro/Software-Validation-Internship&lt;/em</t>
+          <t>https://boseallaboutme.wd1.myworkdayjobs.com/en-US/Bose&lt;/em</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3880,7 +4495,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hewlett Packard (HP)</t>
+          <t>Bloom Energy</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3890,12 +4505,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Spring, TX</t>
+          <t>Newark, DE</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Spring-Texas-United-States-of-America/Software-Engineering-Intern&lt;em</t>
+          <t>https://app.ripplematch.com/v2/public/job/10c94624/details?utm&lt;/em</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3907,189 +4522,189 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>GPTZero</t>
+          <t>Leidos</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Software Engineering Intern 🛂</t>
+          <t>Data Scientist Intern</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>NYC, NYToronto, CA</t>
+          <t>Remote in USAArlington, VA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/GPTZero/e1f12af2-d017-4fca-a9af-99431d989d53?utm&lt;/em</t>
+          <t>https://leidos.wd5.myworkdayjobs.com/External/job/Arlington-VA/Data-Scientist-Intern&lt;/em</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Jan 10</t>
+          <t>Jan 11</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Gilead Sciences</t>
+          <t>Hewlett Packard (HP)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Intern – Clinical Pharmacology Sciences</t>
+          <t>Data Engineering Intern</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>San Mateo, CA</t>
+          <t>Vancouver, WA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://gilead.wd1.myworkdayjobs.com/gileadcareers/job/United-States---California---Foster-City/Intern---Clinical-Pharmacology-Sciences&lt;em</t>
+          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Vancouver-Washington-United-States-of-America/Data-Engineering-Intern&lt;em</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Jan 10</t>
+          <t>Jan 11</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EarnIn</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Infosec Intern - Year-Round</t>
+          <t>Data Analyst intern</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>Spring, TX</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/earnin/jobs/5497902?utm&lt;/em</t>
+          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Spring-Texas-United-States-of-America/Data-Analyst-intern&lt;/em</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Jan 10</t>
+          <t>Jan 11</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Applied Materials</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Platform Engineering Intern - Year Round</t>
+          <t>Algorithm Developer – Intern - Machine Learning</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>Santa Clara, CA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/earnin/jobs/5539340?utm&lt;/em</t>
+          <t>https://amat.wd1.myworkdayjobs.com/External/job/Santa-ClaraCA/Algorithm-Developer--Machine-Learning--Intern&lt;em</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Jan 10</t>
+          <t>Jan 11</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Bose</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Data Science Co-Op</t>
+          <t>Algorithm Developer – Intern - Machine Learning</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Remote in USA</t>
+          <t>Santa Clara, CA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://boseallaboutme.wd1.myworkdayjobs.com/en-US/Bose&lt;/em</t>
+          <t>https://amat.wd1.myworkdayjobs.com/External/job/Santa-ClaraCA/Algorithm-Developer--Machine-Learning--Intern&lt;/em</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Jan 10</t>
+          <t>Jan 11</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Bloom Energy</t>
+          <t>Splunk</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Data Scientist/Product Analyst Intern - Boulder - CO - Summer 2024</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Newark, DE</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://app.ripplematch.com/v2/public/job/10c94624/details?utm&lt;/em</t>
+          <t>https://jobs.jobvite.com/splunk-careers/job/onrSqfwQ?nl=1&amp;nl=1&amp;fr=false&amp;utm&lt;/em</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Jan 10</t>
+          <t>Jan 12</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Thousand Eyes</t>
+          <t>Span</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Software Engineering Intern - Endpoint</t>
+          <t>RDI Software Co-op July-December 2024</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>London, UK</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/thousandeyes/jobs/5615562?utm&lt;/em</t>
+          <t>https://boards.greenhouse.io/spanio/jobs/5857616003?utm&lt;/em</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Jan 11</t>
+          <t>Jan 12</t>
         </is>
       </c>
     </row>
@@ -4101,115 +4716,115 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Data Scientist Intern</t>
+          <t>Software Engineer Intern</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Remote in USAArlington, VA</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://leidos.wd5.myworkdayjobs.com/External/job/Arlington-VA/Data-Scientist-Intern&lt;/em</t>
+          <t>https://leidos.wd5.myworkdayjobs.com/External/job/San-Diego-CA/Software-Engineer-Intern&lt;/em</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Jan 11</t>
+          <t>Jan 12</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Hewlett Packard (HP)</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Data Engineering Intern</t>
+          <t>Software Application Engineer Intern</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vancouver, WA</t>
+          <t>Swindon, UK</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Vancouver-Washington-United-States-of-America/Data-Engineering-Intern&lt;em</t>
+          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/England-Swindon/Software-Application-Engineer-Intern&lt;em</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Jan 11</t>
+          <t>Jan 12</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Emsi</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Data Analyst intern</t>
+          <t>Data Engineer Intern</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Spring, TX</t>
+          <t>Moscow, ID</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Spring-Texas-United-States-of-America/Data-Analyst-intern&lt;/em</t>
+          <t>https://jobs.lever.co/economicmodeling/d99eff63-45c6-4247-8494-047e898db169/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Jan 11</t>
+          <t>Jan 12</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Applied Materials</t>
+          <t>AbelsonTaylor</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Algorithm Developer – Intern - Machine Learning</t>
+          <t>Data Science Intern</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Santa Clara, CA</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://amat.wd1.myworkdayjobs.com/External/job/Santa-ClaraCA/Algorithm-Developer--Machine-Learning--Intern&lt;em</t>
+          <t>https://boards.greenhouse.io/abelsontaylor/jobs/4322044006?utm&lt;em</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Jan 11</t>
+          <t>Jan 12</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Algorithm Developer – Intern - Machine Learning</t>
+          <t>Solutions Architect Intern - LLM - Summer 2024</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4219,255 +4834,255 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://amat.wd1.myworkdayjobs.com/External/job/Santa-ClaraCA/Algorithm-Developer--Machine-Learning--Intern&lt;/em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/Solutions-Architect-Intern--LLM---Summer-2024&lt;em</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jan 11</t>
+          <t>Jan 13</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Hewlett Packard (HP)</t>
+          <t>Skyways</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Software Security Research Intern</t>
+          <t>Software Engineer / Robotics internship</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Bristol, UK</t>
+          <t>Austin, TX</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/United-Kingdom---Bristol/Software-Security-Research-Intern&lt;/em</t>
+          <t>https://jobs.lever.co/skyways/0b9d280a-9c1a-4bf7-a9be-194286822a25/apply?utm&lt;em</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Dec 01</t>
+          <t>Jan 14</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Flyx.ai (Flyx Labs)</t>
+          <t>Confluent</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Full-Stack Engineering Intern</t>
+          <t>Software Engineering Intern (Frontend) - 2024</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Atlanta, GAQuébec, Canada</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/flyxai/jobs/4042306007?utm&lt;em</t>
+          <t>https://app.ripplematch.com/v2/public/job/96587920/details?utm&lt;/em</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Dec 01</t>
+          <t>Jan 15</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Voya Financial</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Machine Learning Research Intern</t>
+          <t>Summer 2024 Data Science Intern - Remote</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/flyxai/jobs/4045994007?utm&lt;em</t>
+          <t>https://godirect.wd5.myworkdayjobs.com/voya&lt;/em</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Dec 01</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>The Boring Company</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Software Engineering - Intern</t>
+          <t>Summer 2024 Software Developer Intern</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Las Vegas, NV</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/boringcompany/2e50dd54-0f2e-42a7-b08d-622ff62e22e8?utm&lt;/em</t>
+          <t>https://godirect.wd5.myworkdayjobs.com/voya&lt;/em</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Dec 03</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Chan Zuckerberg Biohub</t>
+          <t>Snap Inc.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Undergraduate Software Engineer, Data Science and ML Internship 🛂</t>
+          <t>2024 Software Engineer – Snap Up Apprentice</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>4 locationsPalo Alto, CASeattle, WALANYC</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/chanzuckerbergbiohubinternship/jobs/4336495005?utm&lt;em</t>
+          <t>https://wd1.myworkdaysite.com/recruiting/snapchat/snap/job/Los-Angeles-California/XMLNAME-2024-Software-Engineer--Snap-Up-Apprentice&lt;/em</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Dec 03</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Cytokinetics</t>
+          <t>Samsara</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Intern – Informatics</t>
+          <t>Data Engineering Intern</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>San Bruno, CA</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/cytokinetics/jobs/7050455002?utm&lt;/em</t>
+          <t>https://app.ripplematch.com/v2/public/job/d394c822/details?utm&lt;em</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Dec 04</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Simbe Robotics</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Robotics Software Engineer – Intern</t>
+          <t>NVIDIA Summer 2024 Internships: System Software Intern</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>San Bruno, CA</t>
+          <t>Remote in USASanta Clara, CA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/SimbeRobotics/b202c6b5-0ce6-442f-82b2-9e801c92f371/apply?utm&lt;/em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/NVIDIA-Summer-2024-Internships--System-Software-Intern&lt;/em</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Dec 05</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NimbleRx</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Software Engineer Intern - Summer Session - Summer 2024</t>
+          <t>NVIDIA Summer 2024 Internships: Artificial Intelligence Intern</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Remote in USASanta Clara, CA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/nimblerx/d3749f50-25e7-4b55-8482-c842f64dbafc/apply?utm&lt;/em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/NVIDIA-Summer-2024-Internships--Artificial-Intelligence-Intern&lt;em</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Dec 05</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Electric Hydrogen</t>
+          <t>MyFitnessPal</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Business Intelligence Analyst Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Framingham, MA</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://eh2.com/careers?gh&lt;/em</t>
+          <t>https://boards.greenhouse.io/myfitnesspal/jobs/5613767?utm&lt;/em</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Dec 05</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
@@ -4479,49 +5094,49 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Software Engineering Co-Op</t>
+          <t>Software Engineer Intern - IOS-Summer 2024</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Framingham, MA</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://eh2.com/careers?gh&lt;em</t>
+          <t>https://boards.greenhouse.io/myfitnesspal/jobs/5602062?utm&lt;/em</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Dec 05</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>The Brattle Group</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Research Analyst Intern - Corporate Finance/Accounting - Summer 2024</t>
+          <t>Software Engineer Intern - Android-Summer 2024</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/thebrattlegroup/jobs/4325766005?utm&lt;em</t>
+          <t>https://boards.greenhouse.io/myfitnesspal/jobs/5606624?utm&lt;/em</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Dec 06</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
@@ -4533,346 +5148,346 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Energy Analyst Intern - Summer 2024</t>
+          <t>Machine Learning – Intern - Computer Vision - Summer 2024</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Cambridge, MA</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/thebrattlegroup/jobs/4325760005?utm&lt;em</t>
+          <t>https://boards.greenhouse.io/myfitnesspal/jobs/5616597?utm&lt;/em</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Dec 06</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Niantic</t>
+          <t>Capital One</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Labs Incubator Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>McLean, VAChicago, IL</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://app.ripplematch.com/v2/public/job/222a77cb/details?utm&lt;em</t>
+          <t>https://capitalone.wd1.myworkdayjobs.com/Capital&lt;/em</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Dec 06</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Marshall Wace</t>
+          <t>Appian</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Technology Internship (Summer 2024) 🛂</t>
+          <t>Web Development Engineering Intern</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>New York, NY</t>
+          <t>McLean, VA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.mwam.com/news/internships/new-york-technology-internship/?utm&lt;/em</t>
+          <t>https://app.ripplematch.com/v2/public/job/a869a045/details?utm&lt;/em</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Dec 06</t>
+          <t>Jan 16</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>Workiva</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Systems Reliability Engineering Intern</t>
+          <t>2024 Summer – Software Development Intern - Canada</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>NYC</t>
+          <t>RemoteSault Ste. Marie, ON, Canada</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://iex.io/careers/apply?gh&lt;em</t>
+          <t>https://workiva.wd1.myworkdayjobs.com/careers/job/Sault-Ste-Marie/XMLNAME-2024-Summer---Software-Development-Intern--Canada-&lt;em</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Dec 06</t>
+          <t>Jan 17</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Cadence Design Systems</t>
+          <t>Skyways</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Software Engineer internship</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Northridge, LA</t>
+          <t>Austin, TX</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
+          <t>https://jobs.lever.co/skyways/99a7e812-96d4-42be-a633-9d7462a098cb/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Dec 06</t>
+          <t>Jan 17</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Rivian</t>
+          <t>Point72</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>UIUC Research Park Intern - Embedded Software</t>
+          <t>2025 Point72 Academy Investment Analyst Summer Internship Program - US</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Urbana, IL</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://careers.rivian.com/jobs/14916?lang=en-us&amp;icims=1&amp;utm&lt;em</t>
+          <t>https://boards.greenhouse.io/point72/jobs/7053719002?utm&lt;/em</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Dec 07</t>
+          <t>Jan 17</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Leidos</t>
+          <t>Parallel Wireless</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Summer 2024 Intern - Reverse Engineering &amp; Vulnerability Research</t>
+          <t>PHY Software Engineer Intern</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Huntsville, AL</t>
+          <t>Bristol, UK</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://leidos.wd5.myworkdayjobs.com/External/job/Huntsville-AL/Summer-2024-Intern---Reverse-Engineering---Vulnerability-Research&lt;em</t>
+          <t>https://jobs.lever.co/parallelwireless/bc9b27ce-b115-4ac3-8dd6-8429ce24e3a0/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Dec 07</t>
+          <t>Jan 17</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Electric Hydrogen</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Firmware Intern Summer 2024</t>
+          <t>NVIDIA Summer 2024 Internships: Software Engineering Intern</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Remote in USASanta Clara, CA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://eh2.com/careers?gh&lt;/em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/NVIDIA-Summer-2024-Internships--Software-Engineering-Intern&lt;/em</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Dec 07</t>
+          <t>Jan 17</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Inari Agriculture</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Enterprise Data Quality Intern</t>
+          <t>NVIDIA Summer 2024 Internships: Hardware Engineering Intern</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Cambridge, MA</t>
+          <t>Remote in USASanta Clara, CA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/inariagriculture/jobs/7055292002?utm&lt;em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/NVIDIA-Summer-2024-Internships--Hardware-Engineering-Intern&lt;em</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Dec 08</t>
+          <t>Jan 17</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cadence Design Systems</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>NVIDIA Summer 2024 Internships: Computer Architecture Intern</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Northridge, LA</t>
+          <t>Remote in USASanta Clara, CA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/NVIDIA-Summer-2024-Internships--Computer-Architecture-Intern&lt;/em</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Dec 08</t>
+          <t>Jan 17</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>CACI</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Site Reliability Engineer Intern (Monetization Product and Technology SRE)</t>
+          <t>Data Reporting Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Oklahoma City, OK</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://careers.tiktok.com/position/7308839879797770522/detail?utm&lt;/em</t>
+          <t>https://caci.wd1.myworkdayjobs.com/External/job/US-OK-Oklahoma-City/Data-Reporting-Intern---Summer-2024&lt;em</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Dec 10</t>
+          <t>Jan 17</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Modernizing Medicine</t>
+          <t>Astranis</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Technical Program Manager Intern - Software - Summer 2024</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://www.modmed.com/company/careers/?gh&lt;/em</t>
+          <t>https://boards.greenhouse.io/astranis/jobs/4323489006?utm&lt;/em</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Dec 11</t>
+          <t>Jan 17</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Yext</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Software Engineering Intern - Integrations &amp; Interoperability</t>
+          <t>2024 Site Reliability Network Intern</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>NYC</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://www.modmed.com/company/careers/?gh&lt;em</t>
+          <t>https://boards.greenhouse.io/yext/jobs/5602005?utm&lt;em</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Dec 11</t>
+          <t>Jan 18</t>
         </is>
       </c>
     </row>
@@ -4884,22 +5499,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Klara Software Engineering Intern</t>
+          <t>2024 Systems Intern</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>NYC</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://www.modmed.com/company/careers/?gh&lt;/em</t>
+          <t>https://boards.greenhouse.io/yext/jobs/5602018?utm&lt;em</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Dec 11</t>
+          <t>Jan 18</t>
         </is>
       </c>
     </row>
@@ -4911,427 +5526,427 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Java/Angular Software Engineer Intern</t>
+          <t>2024 Site Reliability Database Intern</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>NYC</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://www.modmed.com/company/careers/?gh&lt;em</t>
+          <t>https://boards.greenhouse.io/yext/jobs/5601993?utm&lt;em</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Dec 11</t>
+          <t>Jan 18</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Ultima Genomics</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Web Software Engineering Intern</t>
+          <t>Systems Analytics Intern</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Fremont, CA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.modmed.com/company/careers/?gh&lt;/em</t>
+          <t>https://boards.greenhouse.io/ultimagenomics/jobs/5054493004?utm&lt;em</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Dec 11</t>
+          <t>Jan 18</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Relay</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Mmpm Software Engineer Intern</t>
+          <t>Site Reliability Engineer Intern</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Raleigh, NC</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://www.modmed.com/company/careers/?gh&lt;em</t>
+          <t>https://boards.greenhouse.io/relaypro/jobs/5627853?utm&lt;em</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Dec 11</t>
+          <t>Jan 18</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Backend Software Engineer Intern</t>
+          <t>Machine Learning / AI Undergraduate Intern - Ifs</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.modmed.com/company/careers/?gh&lt;/em</t>
+          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/Virtual-US/Machine-Learning---AI-Undergraduate-Intern---IFS&lt;em</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Dec 11</t>
+          <t>Jan 18</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Gen</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Java Software Engineer Intern</t>
+          <t>Site Reliability Engineer – Intern - Devops</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Tempe, AZ</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://www.modmed.com/company/careers/?gh&lt;em</t>
+          <t>https://gen.wd1.myworkdayjobs.com/careers/job/USA---Arizona-Tempe/Site-Reliability-Engineer--DevOps--Intern&lt;/em</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Dec 11</t>
+          <t>Jan 18</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Anduril</t>
+          <t>Salesforce</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Software Engineer Intern</t>
+          <t>Summer 2024 Intern - Tax Data Analyst</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Atlanta, GA</t>
+          <t>Seattle, WASF</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/andurilindustries/jobs/4162342007?utm&lt;/em</t>
+          <t>https://salesforce.wd12.myworkdayjobs.com/en-us/External&lt;/em</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Dec 12</t>
+          <t>Jan 19</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Kumo</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Software Engineering – Summer Internship 2024</t>
+          <t>Software Developer Intern</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
+          <t>Austin, TX US</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/kumo/d01cc073-5ec4-46a6-9af9-fbc4c4d2b53f/apply?utm&lt;/em</t>
+          <t>https://careers.coca-colacompany.com/job/19722840/software-developer-intern-austin-tx/?utm&lt;/em</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Dec 13</t>
+          <t>Jan 19</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ServiceNow</t>
+          <t>Intuit</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Co-Op</t>
+          <t>Software Engineer Intern</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Montreal, QC, Canada</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://jobs.smartrecruiters.com/ServiceNow/743999951547376?utm&lt;/em</t>
+          <t>https://jobs.intuit.com/job/-/-/27595/60136622192?cid=pjob&lt;/em</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Dec 14</t>
+          <t>Jan 21</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Data Engineering Intern - Summer 2024</t>
+          <t>Front-End Software Engineer Intern</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Los Gatos, CA</t>
+          <t>San Diego, California</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/netflix/9b6379bc-cac9-462c-a03e-4b1ce26030cd/apply?utm&lt;/em</t>
+          <t>https://jobs.intuit.com/job/-/-/27595/60092990192?cid=pjob&lt;em</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Dec 14</t>
+          <t>Jan 21</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Machina Labs</t>
+          <t>ServiceNow</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Software Engineering Internship</t>
+          <t>Software Engineer Intern</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>Remote in USAKirkland, WA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/MachinaLabs/29cc11ac-27a7-4a3a-a392-6c945ab64cbb/apply?utm&lt;/em</t>
+          <t>https://jobs.smartrecruiters.com/ServiceNow/743999962012657?utm&lt;em</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Dec 14</t>
+          <t>Jan 22</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Hugging Face</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Internship - Alignment - US Remote</t>
+          <t>Deep Learning Architecture Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Remote in USAUnited States</t>
+          <t>Santa Clara, CA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/huggingface/j/2295F28772/apply?utm&lt;/em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/Deep-Learning-Architecture-Intern---Summer-2024&lt;em</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Dec 14</t>
+          <t>Jan 22</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Hewlett Packard (HP)</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Internship - Alignment - Remote</t>
+          <t>Data Science – Generative AI Intern Summer 2024</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Spring, TX</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/huggingface/j/90CA057D65/apply?utm&lt;/em</t>
+          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Spring-Texas-United-States-of-America/Data-Science---Generative-AI--Intern-Summer-2024&lt;/em</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Dec 14</t>
+          <t>Jan 22</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>HashiCorp</t>
+          <t>Cadence Design Systems</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Product Design Intern - Undergraduate</t>
+          <t>Software Engineering Intern - ML Algorithms - Summer 2024</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://www.hashicorp.com/career/5473657?gh&lt;/em</t>
+          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Dec 14</t>
+          <t>Jan 22</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>CACI</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Integration Engineer Intern</t>
+          <t>Software Developer Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Dulles, VA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/careers/positions/5462592?gh&lt;em</t>
+          <t>https://caci.wd1.myworkdayjobs.com/External/job/US-VA-Sterling/Software-Developer-Intern---Summer-2024&lt;em</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Dec 14</t>
+          <t>Jan 22</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Hugging Face</t>
+          <t>Behaviour Interactive</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ML Engineer Internship - Improve hardware efficiency - Remote</t>
+          <t>Programmer – Internship Summer 2024 - Programmeur·se - Stage - Été 2024</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/huggingface/j/518E0AB7C0/apply?utm&lt;/em</t>
+          <t>https://jobs.lever.co/bhvr/0881e453-11ac-460e-9267-b50387999774/apply?utm&lt;/em</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Dec 15</t>
+          <t>Jan 22</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Addepar</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Internship - Computer Vision - Remote</t>
+          <t>Software Engineer Intern - Reporting</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/huggingface/j/36F5AB0214/apply?utm&lt;/em</t>
+          <t>https://boards.greenhouse.io/addepar1/jobs/7104343002?utm&lt;/em</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Dec 15</t>
+          <t>Jan 22</t>
         </is>
       </c>
     </row>
@@ -5343,115 +5958,115 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ML Engineer Internship - Improve hardware efficiency - US Remote</t>
+          <t>Software Engineer Intern - Analysis Workflows</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Remote in USAUnited States</t>
+          <t>Remote in USA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/huggingface/j/B4190F3BE4/apply?utm&lt;/em</t>
+          <t>https://boards.greenhouse.io/addepar1/jobs/7104328002?utm&lt;/em</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Dec 15</t>
+          <t>Jan 22</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AppLovin</t>
+          <t>Western Digital</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Mobile Software Engineering Intern</t>
+          <t>Summer Intern 2024 – Software Engineering Internship - Firmware</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Palo Alto, CA</t>
+          <t>Irvine, CA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/applovin/jobs/4303671006?utm&lt;/em</t>
+          <t>https://jobs.smartrecruiters.com/WesternDigital/743999962442345?utm&lt;em</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Dec 15</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Anduril</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Quality Engineer Intern</t>
+          <t>Intern – Software Development Engineering - Apps</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Newport Beach, CA</t>
+          <t>Milpitas, CA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/andurilindustries/jobs/4163556007?utm&lt;/em</t>
+          <t>https://jobs.smartrecruiters.com/WesternDigital/743999962401920?utm&lt;em</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Dec 15</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Talos</t>
+          <t>Two Six Technologies</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Software Engineer Intern - Backend</t>
+          <t>TSC Cyber &amp; Data Science Summer Intern</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>NYC</t>
+          <t>Arlington, VA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/talos/jobs/5039742004?utm&lt;/em</t>
+          <t>https://boards.greenhouse.io/twosixtechnologies/jobs/5051693004?utm&lt;em</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Dec 18</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Strata Decision Technology</t>
+          <t>Tempus</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Intern – Software Engineering</t>
+          <t>Data Security Summer Analyst</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5461,93 +6076,93 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/stratacareers/jobs/5836698003?utm&lt;/em</t>
+          <t>https://boards.greenhouse.io/embed/job&lt;em</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Dec 18</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Span</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Software Engineer Intern</t>
+          <t>Device Software Engineering Internship-Summer 2024</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/stratacareers/jobs/5836698003?gh&lt;/em</t>
+          <t>https://boards.greenhouse.io/spanio/jobs/5863206003?utm&lt;/em</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Dec 18</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Software Validation Engineer Intern</t>
+          <t>Software Engineering Intern - Generative AI Research - Summer 2024</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Hillsboro, OR</t>
+          <t>Santa Clara, CA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Oregon-Hillsboro/Software-Validation-Engineer-Intern&lt;/em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/Software-Engineering-Intern--Generative-AI-Research---Summer-2024&lt;/em</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Dec 18</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Gen</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Software Engineer Intern</t>
+          <t>Solution Architect Intern - Networking - Summer 2024</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
+          <t>Remote in USASanta Clara, CA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://gen.wd1.myworkdayjobs.com/careers/job/USA---California-Mountain-View/Software-Engineer-Intern&lt;em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/Solution-Architect-Intern--Networking---Summer-2024&lt;em</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Dec 18</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
@@ -5559,211 +6174,211 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Software Engineer Intern</t>
+          <t>Real-Time Rendering Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
+          <t>Santa Clara, CA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://gen.wd1.myworkdayjobs.com/careers/job/USA---California-Mountain-View/Software-Engineer-Intern&lt;/em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/Real-Time-Rendering-Intern--Summer-2024&lt;/em</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Dec 18</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Leidos</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Software Engineer Intern</t>
+          <t>Software Developer Co-op</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
+          <t>Bethesda, MD</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://gen.wd1.myworkdayjobs.com/careers/job/USA---California-Mountain-View/Software-Engineer-Intern&lt;em</t>
+          <t>https://leidos.wd5.myworkdayjobs.com/External/job/Bethesda-MD/Software-Developer-Co-op&lt;em</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Dec 18</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cadence Design Systems</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Computer Engineering Co-op</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Northridge, LA</t>
+          <t>Bethesda, MD</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
+          <t>https://leidos.wd5.myworkdayjobs.com/External/job/Bethesda-MD/Computer-Engineering-Co-op&lt;/em</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Dec 18</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Anduril</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Firmware Engineer Intern-Summer 2024</t>
+          <t>Undergraduate Technical Intern - Data Center</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Newport Beach, CA</t>
+          <t>Albuquerque, NM</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/andurilindustries/jobs/4163553007?utm&lt;/em</t>
+          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-New-Mexico-Albuquerque/Undergraduate-Technical-Intern--Data-Center-&lt;em</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Dec 18</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>NT Concepts</t>
+          <t>ExodusPoint</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Summer 2024 STEM Internship</t>
+          <t>Data Science Intern</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Vienna, VA</t>
+          <t>Ardmore, PA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/ntconcepts/jobs/5042342004?utm&lt;/em</t>
+          <t>https://boards.greenhouse.io/exoduspoint/jobs/7108071002?utm&lt;/em</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Dec 19</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Click Therapeutics</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Technical Program Manager Intern - Developer Education - Summer 2024</t>
+          <t>Machine Learning Engineer Intern</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Los Gatos, CA</t>
+          <t>NYC</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/netflix/d91052e3-cedd-42e2-a48d-ae950aebbd1d/apply?utm&lt;/em</t>
+          <t>https://boards.greenhouse.io/clicktherapeutics/jobs/7108646002?utm&lt;/em</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Dec 19</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Cadence Design Systems</t>
+          <t>CACI</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Software Developer Intern - Summer 2024</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA</t>
+          <t>Arlington, VA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
+          <t>https://caci.wd1.myworkdayjobs.com/External/job/US-VA-Arlington/Software-Developer-Intern---Summer-2024&lt;/em</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Dec 19</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>Autodesk</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Scientific Computing Intern</t>
+          <t>Intern – Cloud Infrastructure Engineer</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>Atlanta, GA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
+          <t>https://autodesk.wd1.myworkdayjobs.com/Ext/job/Atlanta-GA-USA/Intern--Cloud-Infrastructure-Engineer&lt;/em</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Dec 19</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
@@ -5775,2159 +6390,221 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Scientific Computing Intern</t>
+          <t>Intern – Frontend Software Engineer</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>San Jose, CA</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
+          <t>https://autodesk.wd1.myworkdayjobs.com/Ext/job/San-Francisco-CA-USA/Intern--Frontend-Software-Engineer&lt;em</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Dec 19</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Zynga</t>
+          <t>↳</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Engineering Intern - Month 2024</t>
+          <t>Intern – Full Stack Software Engineer</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Atlanta, GA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/zynga/jobs/4989906004?utm&lt;em</t>
+          <t>https://autodesk.wd1.myworkdayjobs.com/Ext/job/Atlanta-GA-USA/Intern--Full-Stack-Software-Engineer&lt;/em</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Dec 20</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Autodesk</t>
+          <t>Alarm.com</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Intern – Software Engineer - Hci &amp; AI</t>
+          <t>Software Engineer Internship</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Vienna, VA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://autodesk.wd1.myworkdayjobs.com/Ext/job/Toronto-ON-CAN/Intern--Software-Engineer--HCI---AI&lt;em</t>
+          <t>https://boards.greenhouse.io/alarmcom/jobs/6996362002?utm&lt;em</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Dec 20</t>
+          <t>Jan 23</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Hugging Face</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Internship - Biomedical - Remote</t>
+          <t>Intern – SSD Firmware Development</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>San Jose, CA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/huggingface/j/45BD7A856D/apply?utm&lt;em</t>
+          <t>https://boards.greenhouse.io/samsungsemiconductor/jobs/5804761003?utm&lt;/em</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Dec 21</t>
+          <t>Jan 24</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>↳</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer Internship - Biomedical - US Remote</t>
+          <t>Software Sales Intern - OEM &amp; Strategic Accounts - Summer 2024</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Remote in USAUnited States</t>
+          <t>Austin, TXRemote in USA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/huggingface/j/AB7B65D426/apply?utm&lt;em</t>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-TX-Austin/Software-Sales-Intern--OEM---Strategic-Accounts---Summer-2024&lt;/em</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Dec 21</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Cadence Design Systems</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Software Engineering Intern</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>San Jose, CA</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Dec 21</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Samsung</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Intern – Software Quality Engineering - Soc C&amp;MM</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>San Diego, CA</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/samsungsemiconductor/jobs/5802264003?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Dec 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Ramp</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Software Engineer Internship - IOS</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>NYC</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>https://jobs.ashbyhq.com/ramp/0f1c331d-21b6-44fb-a326-5357d6e30188/application?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Dec 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Moveworks</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer Intern - NLU &amp; ML Infra</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Mountain View, CA</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>https://www.moveworks.com/position?gh&lt;em</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Dec 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer Intern - Conversational Search</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Mountain View, CA</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>https://www.moveworks.com/position?gh&lt;/em</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Dec 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Keywords Studios</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Programming Intern 2024 - 2025 Coconut Lizard</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Newcastle upon Tyne, UK</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>https://apply.workable.com/keywords-intl1/j/C96D5D8A9A/apply?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Dec 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Programming Intern 2024 - 2025 d3t</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Warrington, UK</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>https://apply.workable.com/keywords-intl1/j/8B7A38F0DF/apply?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Dec 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Interactive Brokers</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Software Developer Summer Internship - 2024</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Greenwich, CT</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/ibkr/jobs/7070074002?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Dec 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Dropbox</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Software Engineering Intern - Customer Experience Technology - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>17 locationsOregonWashington, DCLATexasIrvine, CAFloridaGeorgiaArizonaTennesseeVirginiaColoradoMarylandMassachusettsNorth CarolinaSan Diego, CAOhioIllinois</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/embed/job&lt;/em</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Dec 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Anduril</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Software Engineer Intern 🇺🇸</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Newport Beach, CA</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/andurilindustries/jobs/4159665007?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Dec 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>NVIDIA</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Solutions Architect Intern - Cybersecurity AI - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/Solutions-Architect-Intern--Cybersecurity-AI---Summer-2024&lt;em</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Dec 27</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Schonfeld</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>2024 Infrastructure Engineering Summer Internship</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>London, UK</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/schonfeld/jobs/5571559?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Dec 28</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Mercedes-Benz</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Embedded Software Engineer – Intern</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Sunnyvale, CA</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/MBRDNA/e80fa762-49ee-42f8-afa2-a1c103532b81/apply?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Dec 29</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Bose</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Cloud Software Engineer Intern</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Framingham, MA</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>https://boseallaboutme.wd1.myworkdayjobs.com/en-US/Bose&lt;em</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Jan 01</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Matroid</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Software Engineer Intern - Infrastructure - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Palo Alto, CA</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>https://matroid.breezy.hr/p/bf4668116295/apply?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Jan 02</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Global Atlantic Financial Group</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>2025 Quantitative Investments Intern</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>NYC</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/gainternships/jobs/5593433?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Jan 02</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>DRW</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Software Developer Intern</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Montreal, QC, Canada</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/drweng/jobs/5580297?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Jan 02</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Discretionary Junior Trading Intern</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Montreal, QC, Canada</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/drweng/jobs/5585579?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Jan 02</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Cadence Design Systems</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Software Intern</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>San Jose, CA</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>https://cadence.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Jan 02</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>ShyftLabs</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Software Developer – Internship</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Toronto, ON, Canada</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/shyftlabs/b39a054c-e4d2-405e-bf47-a25f80b294eb/apply?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Jan 03</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Raptor Maps</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Summer 2024 Software Engineering Internship - Remote</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/RaptorMaps/015d4188-4a39-4e8e-ac5d-6e8b69a8efef/apply?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Jan 03</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Anduril</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Robotics Software Engineering Intern</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Newport Beach, CA</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/andurilindustries/jobs/4159377007?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Jan 03</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Jr. Software Development Engineer Intern</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>New York, NY</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>https://www.amazon.jobs/en/jobs/2495700/jr-software-development-engineer?cmpid=JB&lt;em</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Jan 03</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>The Boring Company</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Software Engineering Intern - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Bastrop, TX</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/boringcompany/8a8147f3-855d-4bd6-8221-a65a4291fea3/apply?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Jan 04</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>MIT Lincoln Laboratory</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Summer Intern (Artificial Intelligence Technology)</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Lexington, MA</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>https://careers.ll.mit.edu/job/Lexington-Group-01-Summer-Research-Program-Intern-%28Artificial-Intelligence-Technology%29-MA-02420/1109281200/?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Jan 04</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>MasterControl</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Data Analyst Intern</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Salt Lake City, UT</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>https://www.mastercontrol.com/careers/job-listings/role/?role=4354178005&amp;gh&lt;em</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Jan 04</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Formlabs</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Algorithms Software Intern - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Cambridge, MA</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>https://careers.formlabs.com/job/5494878/apply/?gh&lt;/em</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Jan 04</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Marco Technologies</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Data Analyst Intern</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>St Cloud, MN</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/marco/4487535c-6480-4ad4-afd2-b837fe953130/apply?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Jan 05</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Elevance Health</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Data Analyst Internship - Undergraduate - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Chicago, ILAtlanta, GA</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>https://elevancehealth.wd1.myworkdayjobs.com/en-US/ANT/job/IL-CHICAGO-233-S-WACKER-DR-STE-3700/Data-Analyst-Internship---Undergraduate--Summer-2024&lt;em</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Jan 05</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Visa</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Software Engineer – Intern - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Atlanta, GA</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>https://jobs.smartrecruiters.com/Visa/743999957650613?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Jan 08</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Splunk</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Software Engineer in Test Intern</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Boulder, CO</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>https://jobs.jobvite.com/splunk-careers/job/ooEMqfwY?nl=1&amp;nl=1&amp;fr=false&amp;utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Jan 08</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Rockwell Automation</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Intern – Cyber Security</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Milwaukee, WILowell, MA</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>https://rockwellautomation.wd1.myworkdayjobs.com/en-US/External&lt;/em</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Jan 08</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Product Development Engineer Intern</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Phoenix, AZ</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Arizona-Phoenix/Product-Development-Engineer-Intern&lt;em</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Jan 08</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Fastly</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Software Engineer – Summer Undergraduate Intern</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>https://www.fastly.com/about/jobs/apply/?gh&lt;/em</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Jan 08</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Workiva</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>2024 Summer – Software Engineering Intern</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>4 locationsRemote in USAScottsdale, AZDenver, COBozeman, MT</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>https://workiva.wd1.myworkdayjobs.com/careers/job/Remote---IA/XMLNAME-2024-Summer---Software-Engineering-Intern&lt;/em</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Jan 09</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>2024 Summer – Data Science Intern</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Remote in USA</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>https://workiva.wd1.myworkdayjobs.com/careers/job/USA---Remote/XMLNAME-2024-Summer---Data-Science-Intern&lt;em</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Jan 09</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Wade Trim</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Devops Intern</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Detroit, MI</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/wadetrim/0825e953-3aca-484f-b29b-38a45f33cc6a/apply?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Jan 09</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Undergraduate Internship - Data Science - Bachelors</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>7 locationsAustin, TXAlbuquerque, NMSanta Clara, CAHillsboro, ORFolsom, CAPhoenix, AZAtlanta, GA</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Arizona-Phoenix/Undergraduate-Internship---Data-Science---Bachelors-&lt;/em</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Jan 09</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Exiger</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Data Analyst Internship</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Richmond, VA</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>https://www.exiger.com/careers/5044845004?gh&lt;em</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Jan 09</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Workiva</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>2024 Summer – Software Engineer Intern - Ames - IA location</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Ames, IA</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>https://workiva.wd1.myworkdayjobs.com/careers/job/Ames/XMLNAME-2024-Summer---Software-Engineer-Intern--Ames--IA-location-&lt;/em</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Wealthsimple</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Intern – Security - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/wealthsimple/a329d5ad-a15b-4852-a73f-7906b1c4c6b4/apply?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Rockwell Automation</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Co-op – Software Engineering</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Milwaukee, WI</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>https://rockwellautomation.wd1.myworkdayjobs.com/en-US/External&lt;em</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Perchwell</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Perchwell 2024 Software Engineer Internship</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>NYC</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>https://jobs.ashbyhq.com/Perchwell/6aa0778e-8d3e-457d-8ee3-3b931f8c57be/application?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>NVIDIA</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Power Architect Intern - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/Power-Architect-Intern---Summer-2024&lt;/em</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Software Validation Internship</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Hillsboro, OR</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/US-Oregon-Hillsboro/Software-Validation-Internship&lt;em</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Hewlett Packard (HP)</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Software Engineering Intern</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Spring, TX</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Spring-Texas-United-States-of-America/Software-Engineering-Intern&lt;/em</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>GPTZero</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Software Engineering Intern 🛂</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>NYC, NYToronto, CA</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>https://jobs.ashbyhq.com/GPTZero/e1f12af2-d017-4fca-a9af-99431d989d53?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Gilead Sciences</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Intern – Clinical Pharmacology Sciences</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>San Mateo, CA</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>https://gilead.wd1.myworkdayjobs.com/gileadcareers/job/United-States---California---Foster-City/Intern---Clinical-Pharmacology-Sciences&lt;/em</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>EarnIn</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Infosec Intern - Year-Round</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Palo Alto, CA</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/earnin/jobs/5497902?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Platform Engineering Intern - Year Round</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Palo Alto, CA</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/earnin/jobs/5539340?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Bloom Energy</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Software Engineering Intern</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Newark, DE</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>https://app.ripplematch.com/v2/public/job/10c94624/details?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Jan 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Protective Life</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>2024 Summer Internship-Software Development</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Birmingham, AL</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/protective/e6d3b1d5-7d05-40bc-ae27-4dd5760d84b8/apply?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Jan 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Leidos</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Technical Intern</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Remote in USA</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>https://leidos.wd5.myworkdayjobs.com/External/job/Remote-US/Technical-Intern&lt;em</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>Jan 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Technical Intern</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Remote in USA</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>https://leidos.wd5.myworkdayjobs.com/External/job/Remote-US/Technical-Intern&lt;/em</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>Jan 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Data Scientist Intern</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Remote in USAArlington, VA</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>https://leidos.wd5.myworkdayjobs.com/External/job/Arlington-VA/Data-Scientist-Intern&lt;em</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>Jan 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Hewlett Packard (HP)</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Security / App Dev Intern</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Spring, TX</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Spring-Texas-United-States-of-America/Security---App-Dev-Intern&lt;/em</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>Jan 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>D&amp;TO Software AI Intern Summer 2024</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Corvallis, OR</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Corvallis-Oregon-United-States-of-America/D-TO-Software-AI-Intern-Summer-2024&lt;em</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Jan 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Data Engineering Intern</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Vancouver, WA</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>https://hp.wd5.myworkdayjobs.com/ExternalCareerSite/job/Vancouver-Washington-United-States-of-America/Data-Engineering-Intern&lt;/em</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>Jan 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>GPTZero</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineering Intern 🛂</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>NYC, NYToronto, CA</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>https://jobs.ashbyhq.com/GPTZero/d7e6f3ee-8446-4ac4-b1f8-e79c9876c31a?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Jan 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Applied Materials</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Algorithm Developer – Intern - Machine Learning</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>https://amat.wd1.myworkdayjobs.com/External/job/Santa-ClaraCA/Algorithm-Developer--Machine-Learning--Intern&lt;/em</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>Jan 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Algorithm Developer – Intern - Machine Learning</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>https://amat.wd1.myworkdayjobs.com/External/job/Santa-ClaraCA/Algorithm-Developer--Machine-Learning--Intern&lt;em</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Jan 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Splunk</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Data Scientist/Product Analyst Intern - Boulder - CO - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Colorado</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>https://jobs.jobvite.com/splunk-careers/job/onrSqfwQ?nl=1&amp;nl=1&amp;fr=false&amp;utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>Jan 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Span</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>RDI Software Co-op July-December 2024</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/spanio/jobs/5857616003?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>Jan 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Momentive</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Technical Intern</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>RemoteOttawa, ON, Canada</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/surveymonkey/jobs/5616821?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>Jan 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Leidos</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Software Engineer Intern</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>San Diego, CA</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>https://leidos.wd5.myworkdayjobs.com/External/job/San-Diego-CA/Software-Engineer-Intern&lt;/em</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Jan 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Software Application Engineer Intern</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Swindon, UK</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>https://intel.wd1.myworkdayjobs.com/en-us/external/job/England-Swindon/Software-Application-Engineer-Intern&lt;em</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>Jan 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Guidewire</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Summer 2024 Software Engineer Toronto Co-Op</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Toronto, ON, Canada</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/guidewire/69fc0fac-817c-49e5-82cd-578b3fdeeb95/apply?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>Jan 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>↳</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Full-stack Co-op - Summer 2024 Toronto</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Mississauga, ON, Canada</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/guidewire/9f36d9a2-d98f-4362-b80e-4488de355c05/apply?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Jan 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Emsi</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Data Engineer Intern</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Moscow, ID</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/economicmodeling/d99eff63-45c6-4247-8494-047e898db169/apply?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>Jan 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Autodesk</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Intern – Machine Learning Engineer</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Toronto, ON, Canada</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>https://autodesk.wd1.myworkdayjobs.com/Ext/job/Toronto-ON-CAN/Intern--Machine-Learning-Engineer&lt;/em</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>Jan 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>AbelsonTaylor</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Data Science Intern</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Chicago, IL</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/abelsontaylor/jobs/4322044006?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Jan 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>NVIDIA</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Solutions Architect Intern - LLM - Summer 2024</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>https://nvidia.wd5.myworkdayjobs.com/en-us/nvidiaexternalcareersite/job/US-CA-Santa-Clara/Solutions-Architect-Intern--LLM---Summer-2024&lt;em</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>Jan 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Guidewire</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Summer 2024 – Consultant Developer Intern - Toronto - On</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Toronto, ON, Canada</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/guidewire/61b6b936-44ca-416e-a2c4-2b0d9715117c/apply?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Jan 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Skyways</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Software Engineer / Robotics internship</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Austin, TX</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>https://jobs.lever.co/skyways/0b9d280a-9c1a-4bf7-a9be-194286822a25/apply?utm&lt;em</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>Jan 14</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Confluent</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Software Engineering Intern (Frontend) - 2024</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Atlanta, GAQuébec, Canada</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>https://app.ripplematch.com/v2/public/job/96587920/details?utm&lt;/em</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>Jan 15</t>
+          <t>Jan 24</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D36" r:id="rId34"/>
+    <hyperlink ref="D37" r:id="rId35"/>
+    <hyperlink ref="D40" r:id="rId36"/>
+    <hyperlink ref="D41" r:id="rId37"/>
+    <hyperlink ref="D42" r:id="rId38"/>
+    <hyperlink ref="D43" r:id="rId39"/>
+    <hyperlink ref="D44" r:id="rId40"/>
+    <hyperlink ref="D45" r:id="rId41"/>
+    <hyperlink ref="D46" r:id="rId42"/>
+    <hyperlink ref="D47" r:id="rId43"/>
+    <hyperlink ref="D48" r:id="rId44"/>
+    <hyperlink ref="D49" r:id="rId45"/>
+    <hyperlink ref="D50" r:id="rId46"/>
+    <hyperlink ref="D51" r:id="rId47"/>
+    <hyperlink ref="D52" r:id="rId48"/>
+    <hyperlink ref="D53" r:id="rId49"/>
+    <hyperlink ref="D56" r:id="rId50"/>
+    <hyperlink ref="D57" r:id="rId51"/>
+    <hyperlink ref="D58" r:id="rId52"/>
+    <hyperlink ref="D59" r:id="rId53"/>
+    <hyperlink ref="D60" r:id="rId54"/>
+    <hyperlink ref="D61" r:id="rId55"/>
+    <hyperlink ref="D62" r:id="rId56"/>
+    <hyperlink ref="D63" r:id="rId57"/>
+    <hyperlink ref="D64" r:id="rId58"/>
+    <hyperlink ref="D65" r:id="rId59"/>
+    <hyperlink ref="D66" r:id="rId60"/>
+    <hyperlink ref="D67" r:id="rId61"/>
+    <hyperlink ref="D68" r:id="rId62"/>
+    <hyperlink ref="D69" r:id="rId63"/>
+    <hyperlink ref="D70" r:id="rId64"/>
+    <hyperlink ref="D71" r:id="rId65"/>
+    <hyperlink ref="D72" r:id="rId66"/>
+    <hyperlink ref="D73" r:id="rId67"/>
+    <hyperlink ref="D74" r:id="rId68"/>
+    <hyperlink ref="D75" r:id="rId69"/>
+    <hyperlink ref="D76" r:id="rId70"/>
+    <hyperlink ref="D77" r:id="rId71"/>
+    <hyperlink ref="D78" r:id="rId72"/>
+    <hyperlink ref="D79" r:id="rId73"/>
+    <hyperlink ref="D80" r:id="rId74"/>
+    <hyperlink ref="D81" r:id="rId75"/>
+    <hyperlink ref="D83" r:id="rId76"/>
+    <hyperlink ref="D84" r:id="rId77"/>
+    <hyperlink ref="D85" r:id="rId78"/>
+    <hyperlink ref="D86" r:id="rId79"/>
+    <hyperlink ref="D87" r:id="rId80"/>
+    <hyperlink ref="D88" r:id="rId81"/>
+    <hyperlink ref="D89" r:id="rId82"/>
+    <hyperlink ref="D90" r:id="rId83"/>
+    <hyperlink ref="D91" r:id="rId84"/>
+    <hyperlink ref="D123" r:id="rId85"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>